--- a/03-23-25 to 03-29-25 Madison Schedule.xlsx
+++ b/03-23-25 to 03-29-25 Madison Schedule.xlsx
@@ -2229,10 +2229,14 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>@ Store w/ Lori</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2285,7 +2289,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2352,14 +2356,10 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2419,12 +2419,12 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Driver</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2478,13 +2478,12 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2526,10 +2525,15 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2566,8 +2570,16 @@
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>

--- a/03-23-25 to 03-29-25 Madison Schedule.xlsx
+++ b/03-23-25 to 03-29-25 Madison Schedule.xlsx
@@ -1204,7 +1204,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1361,11 +1361,7 @@
           <t>6)</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Kayla</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">

--- a/03-23-25 to 03-29-25 Madison Schedule.xlsx
+++ b/03-23-25 to 03-29-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,10 +1055,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>@ Store, After C-Store</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
@@ -1119,15 +1123,10 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1204,10 +1203,15 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1281,7 +1285,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1361,7 +1365,11 @@
           <t>6)</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
@@ -1418,7 +1426,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1486,14 +1494,10 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>@ Store, After C-Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -2069,7 +2073,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -4711,7 +4715,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -4746,7 +4750,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -4781,10 +4785,14 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>*Until zeros</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4851,7 +4859,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -4874,41 +4882,6 @@
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-23-25 to 03-29-25 Madison Schedule.xlsx
+++ b/03-23-25 to 03-29-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2248,7 +2248,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2371,7 +2371,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FESTIVAL #2738, HALES CORNERS - LIFO</t>
+          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2438,7 +2438,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5600 S 108TH ST</t>
+          <t>1185 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nBMrYYd4MgfvQze18</t>
+          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2543,11 +2543,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2589,9 +2585,21 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
@@ -2626,12 +2634,12 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2685,18 +2693,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah,
-Train Brenda</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2739,21 +2746,9 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
@@ -2798,22 +2793,9 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>@ Store,
-Train w/ Aivy</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
@@ -2855,21 +2837,13 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
@@ -2910,21 +2884,13 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
@@ -2961,21 +2927,13 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>ROTE OIL #03 TWIN LAKES</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
@@ -3016,22 +2974,13 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>@ Store,
-Train Sophia</t>
-        </is>
-      </c>
+          <t>475 N LAKE AVE</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
@@ -3072,21 +3021,13 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
@@ -3127,21 +3068,13 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
@@ -3174,22 +3107,13 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>@ Store,
-Train w/ Lashaun</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
@@ -3223,7 +3147,11 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ROTE OIL #04 GENOA CITY</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -3258,7 +3186,11 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -3291,7 +3223,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3339,7 +3271,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3387,7 +3319,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3435,7 +3367,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1185 N PORT WASHINGTON RD</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3482,7 +3414,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3523,7 +3455,11 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -3553,21 +3489,9 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -3594,17 +3518,17 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -3649,12 +3573,12 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3702,9 +3626,21 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
@@ -3777,11 +3713,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -3814,7 +3746,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -3845,7 +3777,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -3888,7 +3820,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -3927,7 +3859,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t>3338 N MAIN ST</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -3966,7 +3898,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/PPgMB73RP522</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -4005,7 +3937,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -4042,11 +3974,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -4072,13 +4000,21 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -4103,13 +4039,21 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -4134,10 +4078,14 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -4165,10 +4113,14 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -4196,13 +4148,21 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>*Until zeros</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4227,13 +4187,21 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -4258,10 +4226,14 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -4284,604 +4256,6 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>3338 N MAIN ST</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PPgMB73RP522</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>*Until zeros</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-23-25 to 03-29-25 Madison Schedule.xlsx
+++ b/03-23-25 to 03-29-25 Madison Schedule.xlsx
@@ -1818,7 +1818,11 @@
           <t>Taylor</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">

--- a/03-23-25 to 03-29-25 Madison Schedule.xlsx
+++ b/03-23-25 to 03-29-25 Madison Schedule.xlsx
@@ -1220,15 +1220,10 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1297,7 +1292,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1379,7 +1374,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1442,10 +1437,15 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1506,15 +1506,10 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1558,10 +1553,15 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1609,15 +1609,10 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -1661,10 +1656,15 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1708,15 +1708,10 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
@@ -1764,10 +1759,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -1808,21 +1807,9 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
@@ -1903,7 +1890,11 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -1948,7 +1939,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2021,7 +2012,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S STATION IXONIA</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2090,7 +2081,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION IXONIA</t>
+          <t>W1168 AMERICAN ST HWY 16</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2146,7 +2137,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>W1168 AMERICAN ST HWY 16</t>
+          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2195,11 +2186,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2257,9 +2244,21 @@
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -2315,17 +2314,17 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
@@ -2382,12 +2381,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2447,21 +2446,9 @@
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2551,7 +2538,11 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>5:30 AM START</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2608,7 +2599,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2655,7 +2646,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2714,7 +2705,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2757,7 +2748,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2804,7 +2795,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2852,7 +2843,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2899,7 +2890,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2942,7 +2933,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -2989,7 +2980,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3036,7 +3027,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3083,7 +3074,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3122,7 +3113,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3161,7 +3152,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3200,7 +3191,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3235,7 +3226,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3283,7 +3274,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3331,7 +3322,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3379,7 +3370,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3426,7 +3417,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3467,11 +3458,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -3497,9 +3484,21 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -3538,17 +3537,17 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -3593,12 +3592,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3646,21 +3645,9 @@
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
